--- a/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
+++ b/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
@@ -2292,8 +2292,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100221A7C4456A97A45A5FB2F06EE0F3795" ma:contentTypeVersion="12" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f4c41121cfa066fe108e5e004855f00">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56bd86cd-aee7-4d84-9328-0256d48ce484" xmlns:ns3="d89b8d59-050a-4503-a522-eb5bc4a69315" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6a311bf9b8bd512c3fc9f491e5d02bc" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100221A7C4456A97A45A5FB2F06EE0F3795" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="360c05c39a5b891b7d35833bebd587ce">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56bd86cd-aee7-4d84-9328-0256d48ce484" xmlns:ns3="d89b8d59-050a-4503-a522-eb5bc4a69315" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a48877c9b5daa27d4eef0dcd4f5468" ns2:_="" ns3:_="">
     <xsd:import namespace="56bd86cd-aee7-4d84-9328-0256d48ce484"/>
     <xsd:import namespace="d89b8d59-050a-4503-a522-eb5bc4a69315"/>
     <xsd:element name="properties">
@@ -2333,7 +2333,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2376,7 +2376,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d89b8d59-050a-4503-a522-eb5bc4a69315" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2395,7 +2395,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2412,8 +2412,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2511,20 +2511,5 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F88C77B0-C072-4CA1-97EB-F5998B352877}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56bd86cd-aee7-4d84-9328-0256d48ce484"/>
-    <ds:schemaRef ds:uri="d89b8d59-050a-4503-a522-eb5bc4a69315"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4805EA96-EF67-40D6-8FD6-8745090012CE}"/>
 </file>
--- a/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
+++ b/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
@@ -2292,8 +2292,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100221A7C4456A97A45A5FB2F06EE0F3795" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="360c05c39a5b891b7d35833bebd587ce">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56bd86cd-aee7-4d84-9328-0256d48ce484" xmlns:ns3="d89b8d59-050a-4503-a522-eb5bc4a69315" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9a48877c9b5daa27d4eef0dcd4f5468" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100221A7C4456A97A45A5FB2F06EE0F3795" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c809e4bb4dcabc79b4680638d902f54e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56bd86cd-aee7-4d84-9328-0256d48ce484" xmlns:ns3="d89b8d59-050a-4503-a522-eb5bc4a69315" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d660df505a369c7f32790d65e16c6c9" ns2:_="" ns3:_="">
     <xsd:import namespace="56bd86cd-aee7-4d84-9328-0256d48ce484"/>
     <xsd:import namespace="d89b8d59-050a-4503-a522-eb5bc4a69315"/>
     <xsd:element name="properties">
@@ -2313,6 +2313,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2333,7 +2334,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -2372,11 +2373,16 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d89b8d59-050a-4503-a522-eb5bc4a69315" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2395,7 +2401,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -2412,8 +2418,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2502,6 +2508,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56bd86cd-aee7-4d84-9328-0256d48ce484">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E8BBED1-A1EE-4E56-8AB1-468FB22EEAEC}">
   <ds:schemaRefs>
@@ -2511,5 +2527,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4805EA96-EF67-40D6-8FD6-8745090012CE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6E33CF-84B3-40B6-B7E9-835DDE24C908}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F815213E-D1E2-4964-B61F-462EB3CD0D84}"/>
 </file>
--- a/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
+++ b/primer_schemes/DENGUESEQ3/V1/DENGUESEQ3.primers.xlsx
@@ -2292,10 +2292,9 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100221A7C4456A97A45A5FB2F06EE0F3795" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c809e4bb4dcabc79b4680638d902f54e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56bd86cd-aee7-4d84-9328-0256d48ce484" xmlns:ns3="d89b8d59-050a-4503-a522-eb5bc4a69315" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d660df505a369c7f32790d65e16c6c9" ns2:_="" ns3:_="">
-    <xsd:import namespace="56bd86cd-aee7-4d84-9328-0256d48ce484"/>
-    <xsd:import namespace="d89b8d59-050a-4503-a522-eb5bc4a69315"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BFF9B0A2EA703478935F22CF06B4FA8" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f5046e42ccc02bc190c1d4a3c9156a7a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="458d350c-6d00-4e77-b9ed-189aafeb95ce" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff7a485a0ba109234b58d86854462e5e" ns2:_="">
+    <xsd:import namespace="458d350c-6d00-4e77-b9ed-189aafeb95ce"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2304,16 +2303,13 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2321,7 +2317,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56bd86cd-aee7-4d84-9328-0256d48ce484" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="458d350c-6d00-4e77-b9ed-189aafeb95ce" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2334,36 +2330,36 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Marcações de imagem" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="143de60c-575b-4c62-9f62-591ff79d3e1c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -2371,41 +2367,6 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d89b8d59-050a-4503-a522-eb5bc4a69315" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2418,8 +2379,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -2511,7 +2472,7 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56bd86cd-aee7-4d84-9328-0256d48ce484">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="458d350c-6d00-4e77-b9ed-189aafeb95ce">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -2527,7 +2488,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B6E33CF-84B3-40B6-B7E9-835DDE24C908}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4901700-AF72-40AC-9F1A-5FD4E340C9E1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
